--- a/data/bd_rcv.xlsx
+++ b/data/bd_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8842843720638898</v>
+        <v>0.8835358190196899</v>
       </c>
       <c r="D2">
-        <v>0.8825211575211576</v>
+        <v>0.02161895173592906</v>
       </c>
       <c r="E2">
-        <v>0.8824610822831728</v>
+        <v>0.8820922963780106</v>
       </c>
       <c r="F2">
-        <v>0.8914728682170543</v>
+        <v>0.02800854418673326</v>
       </c>
       <c r="G2">
-        <v>0.8643183100035893</v>
+        <v>0.8869493557087205</v>
+      </c>
+      <c r="H2">
+        <v>0.02711976540055858</v>
+      </c>
+      <c r="I2">
+        <v>0.891921027131783</v>
+      </c>
+      <c r="J2">
+        <v>0.02944385681119933</v>
+      </c>
+      <c r="K2">
+        <v>0.8763553906411049</v>
+      </c>
+      <c r="L2">
+        <v>0.02908422941733333</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.9036788808852698</v>
+        <v>0.8925764558022623</v>
       </c>
       <c r="D3">
-        <v>0.9020975520975523</v>
+        <v>0.02135460416543035</v>
       </c>
       <c r="E3">
-        <v>0.900051890289103</v>
+        <v>0.8983360911932341</v>
       </c>
       <c r="F3">
-        <v>0.9007751937984496</v>
+        <v>0.03527728050291774</v>
       </c>
       <c r="G3">
-        <v>0.89062708301287</v>
+        <v>0.907471781040855</v>
+      </c>
+      <c r="H3">
+        <v>0.02313588899810559</v>
+      </c>
+      <c r="I3">
+        <v>0.914486434108527</v>
+      </c>
+      <c r="J3">
+        <v>0.0279788121958852</v>
+      </c>
+      <c r="K3">
+        <v>0.8926406926406925</v>
+      </c>
+      <c r="L3">
+        <v>0.03526294472009913</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.9398684622611964</v>
+        <v>0.9346334310850439</v>
       </c>
       <c r="D4">
-        <v>0.927093002093002</v>
+        <v>0.01455722451269701</v>
       </c>
       <c r="E4">
-        <v>0.9232839140103781</v>
+        <v>0.9315545136973709</v>
       </c>
       <c r="F4">
-        <v>0.9224806201550388</v>
+        <v>0.02321273793292695</v>
       </c>
       <c r="G4">
-        <v>0.9007793672768292</v>
+        <v>0.9392318449705324</v>
+      </c>
+      <c r="H4">
+        <v>0.02150374760195192</v>
+      </c>
+      <c r="I4">
+        <v>0.9440528100775193</v>
+      </c>
+      <c r="J4">
+        <v>0.01753936613608477</v>
+      </c>
+      <c r="K4">
+        <v>0.9179447536590393</v>
+      </c>
+      <c r="L4">
+        <v>0.03601592618840947</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7795636287712705</v>
+        <v>0.7974025974025973</v>
       </c>
       <c r="D5">
-        <v>0.7798639548639549</v>
+        <v>0.02706873865577115</v>
       </c>
       <c r="E5">
-        <v>0.7670669631826045</v>
+        <v>0.7778176135318992</v>
       </c>
       <c r="F5">
-        <v>0.7558139534883721</v>
+        <v>0.04381484333519634</v>
       </c>
       <c r="G5">
-        <v>0.7702661129057069</v>
+        <v>0.7696334032564179</v>
+      </c>
+      <c r="H5">
+        <v>0.02914658848153883</v>
+      </c>
+      <c r="I5">
+        <v>0.7698885658914728</v>
+      </c>
+      <c r="J5">
+        <v>0.03423968978427551</v>
+      </c>
+      <c r="K5">
+        <v>0.7903009688723974</v>
+      </c>
+      <c r="L5">
+        <v>0.06971292780013427</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.9062428228416326</v>
+        <v>0.8744407205697527</v>
       </c>
       <c r="D6">
-        <v>0.8953612703612702</v>
+        <v>0.02234873208954248</v>
       </c>
       <c r="E6">
-        <v>0.8930096367679763</v>
+        <v>0.8746690568119139</v>
       </c>
       <c r="F6">
-        <v>0.8813953488372093</v>
+        <v>0.03070906582695579</v>
       </c>
       <c r="G6">
-        <v>0.8875916525662719</v>
+        <v>0.8537458795325141</v>
+      </c>
+      <c r="H6">
+        <v>0.02485249394820985</v>
+      </c>
+      <c r="I6">
+        <v>0.8701671511627908</v>
+      </c>
+      <c r="J6">
+        <v>0.0406830972705518</v>
+      </c>
+      <c r="K6">
+        <v>0.8480416408987838</v>
+      </c>
+      <c r="L6">
+        <v>0.03664838865895326</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8325775133103663</v>
+        <v>0.8336908253037286</v>
       </c>
       <c r="D7">
-        <v>0.8136545636545638</v>
+        <v>0.02076211676289512</v>
       </c>
       <c r="E7">
-        <v>0.7917074376081047</v>
+        <v>0.8116565545136973</v>
       </c>
       <c r="F7">
-        <v>0.7953488372093024</v>
+        <v>0.03535676183866732</v>
       </c>
       <c r="G7">
-        <v>0.7965697584986925</v>
+        <v>0.8056937368894216</v>
+      </c>
+      <c r="H7">
+        <v>0.02908184860042634</v>
+      </c>
+      <c r="I7">
+        <v>0.8165394864341085</v>
+      </c>
+      <c r="J7">
+        <v>0.05245009741893358</v>
+      </c>
+      <c r="K7">
+        <v>0.824757781900639</v>
+      </c>
+      <c r="L7">
+        <v>0.04984814205342435</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.9734878379789123</v>
+        <v>0.8906116464180979</v>
       </c>
       <c r="D8">
-        <v>0.972988897988898</v>
+        <v>0.01570398931711488</v>
       </c>
       <c r="E8">
-        <v>0.9725574499629357</v>
+        <v>0.8990255561684133</v>
       </c>
       <c r="F8">
-        <v>0.9775193798449612</v>
+        <v>0.03409667336054903</v>
       </c>
       <c r="G8">
-        <v>0.9665589909244732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.897861989769287</v>
-      </c>
-      <c r="D9">
-        <v>0.8926517426517426</v>
-      </c>
-      <c r="E9">
-        <v>0.8887991104521868</v>
-      </c>
-      <c r="F9">
-        <v>0.8914728682170543</v>
-      </c>
-      <c r="G9">
-        <v>0.8744193201045993</v>
+        <v>0.897547697532714</v>
+      </c>
+      <c r="H8">
+        <v>0.02341232496872762</v>
+      </c>
+      <c r="I8">
+        <v>0.9090419089147286</v>
+      </c>
+      <c r="J8">
+        <v>0.03009448915103605</v>
+      </c>
+      <c r="K8">
+        <v>0.884508348794063</v>
+      </c>
+      <c r="L8">
+        <v>0.02833515891435427</v>
       </c>
     </row>
   </sheetData>
